--- a/hw_ms2131/BOM_Board1_2131_MIC_Audio_2022-11-10.xlsx
+++ b/hw_ms2131/BOM_Board1_2131_MIC_Audio_2022-11-10.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="27735" windowHeight="11700"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Board1_2131_MIC_Audio_2022-" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="203">
   <si>
     <t>No.</t>
   </si>
@@ -334,9 +334,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>R25,R30,R32,R33,R35,R36,R43,R47,R50,R55</t>
-  </si>
-  <si>
     <t>0R/5%</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>41</t>
   </si>
   <si>
-    <t>R75,R76</t>
-  </si>
-  <si>
     <t>0R/5%/NC</t>
   </si>
   <si>
@@ -623,13 +617,21 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>R30,R32,R33,R35,R36,R43,R47,R50,R55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R25,R75,R76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,14 +1025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -1039,7 +1041,7 @@
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="94.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="27">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="27">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1260,7 +1262,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1294,7 +1296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1328,7 +1330,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1345,7 +1347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="27">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="27">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -1430,7 +1432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
@@ -1447,7 +1449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="27">
       <c r="A30" s="1" t="s">
         <v>99</v>
       </c>
@@ -1532,7 +1534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>102</v>
       </c>
@@ -1549,92 +1551,92 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="27">
       <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
+      <c r="B32" s="1">
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1642,409 +1644,409 @@
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
+      <c r="B43" s="1">
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>200</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
